--- a/.NET/SimpleExcelGrep/testdata/delete/test/delete_test.xlsx
+++ b/.NET/SimpleExcelGrep/testdata/delete/test/delete_test.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\SimpleExcelGrep\testdata\delete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\SimpleExcelGrep\testdata\delete\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC5BFD2-6D00-4E48-8B80-80F6D8AAD285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421E019A-B7A4-49C1-8752-F921E6C09DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,6 +24,51 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>banana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>BANANA</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>ＡＰＰＬＥ</t>
+  </si>
+  <si>
+    <t>ＢＡＮＡＮＡ</t>
+  </si>
+  <si>
+    <t>ＣＯＭＭＯＮ</t>
+  </si>
+  <si>
+    <t>ＤＥＬＥＴＥ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -525,4 +572,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78135FA2-E8A8-40B4-9B94-583C9D5EF075}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561D547-8C54-48D7-B301-11D3AC1A8789}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/.NET/SimpleExcelGrep/testdata/delete/test/delete_test.xlsx
+++ b/.NET/SimpleExcelGrep/testdata/delete/test/delete_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\SimpleExcelGrep\testdata\delete\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421E019A-B7A4-49C1-8752-F921E6C09DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A92B9B-74D5-4731-BEA4-3D16066DFAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1305" windowWidth="28800" windowHeight="14175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t>apple</t>
     <phoneticPr fontId="1"/>
@@ -89,12 +89,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -576,20 +583,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78135FA2-E8A8-40B4-9B94-583C9D5EF075}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="8" max="9" width="0" style="1" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="E3" t="s">
         <v>2</v>
       </c>
@@ -617,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="E4" t="s">
         <v>3</v>
       </c>
@@ -625,12 +635,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -644,27 +654,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -676,6 +686,14 @@
       </c>
       <c r="E14" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
